--- a/Sheets/对话表模板.xlsx
+++ b/Sheets/对话表模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A9CD63-C479-4AF5-94AA-B6AB1C0EEC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38F536E-576B-4E73-AAC0-02BAE3925FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <author>zhuang zhong</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -50,12 +50,14 @@
           <t xml:space="preserve">
 0或空置为正常对话
 1为玩家选项
+2为不连续选项
+3为空，会直接跳过但是会执行函数
 -1为结束对话
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -84,14 +86,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="dialogueRule" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Sheets\mappings\dialogueRule.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="1" xr16:uid="{63F2EDC3-17BA-45DB-A9D0-8F990F83BE30}" name="dialogueRule" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\UserDocuments\GamesDesign\UnityXmlRW\Sheets\mappings\dialogueRule.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>对话id</t>
   </si>
@@ -105,9 +107,6 @@
     <t>类型</t>
   </si>
   <si>
-    <t>跳转对话id</t>
-  </si>
-  <si>
     <t>跳转预览</t>
   </si>
   <si>
@@ -126,32 +125,42 @@
     <t>dialogues</t>
   </si>
   <si>
+    <t>发言人id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>差分</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Xmls\Dialogues\testingDialogue.xml</t>
-  </si>
-  <si>
-    <t>function</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>发言人id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型预览</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -180,6 +189,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -195,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -218,42 +243,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -270,20 +326,21 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema3">
-    <xsd:schema xmlns="" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-      <xsd:element name="dialogues" nillable="true">
+  <Schema ID="Schema2">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="dialogues">
         <xsd:complexType>
           <xsd:sequence minOccurs="0">
-            <xsd:element form="unqualified" maxOccurs="unbounded" minOccurs="0" name="line" nillable="true">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="line" form="unqualified">
               <xsd:complexType>
-                <xsd:attribute form="unqualified" name="id" type="xsd:string"/>
-                <xsd:attribute form="unqualified" name="speakerId" type="xsd:string"/>
-                <xsd:attribute form="unqualified" name="content" type="xsd:string"/>
-                <xsd:attribute form="unqualified" name="type" type="xsd:string"/>
-                <xsd:attribute form="unqualified" name="jumpTo" type="xsd:string"/>
-                <xsd:attribute form="unqualified" name="function" type="xsd:string"/>
-                <xsd:attribute form="unqualified" name="params" type="xsd:string"/>
+                <xsd:attribute name="id" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="speakerId" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="varient" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="content" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="type" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="jumpTo" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="function" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="params" form="unqualified" type="xsd:string"/>
               </xsd:complexType>
             </xsd:element>
           </xsd:sequence>
@@ -291,7 +348,7 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="8" Name="dialogues" RootElement="dialogues" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+  <Map ID="9" Name="dialogues" RootElement="dialogues" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
@@ -432,39 +489,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="dialogue" displayName="dialogue" ref="A1:J2" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:J2" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
-  <tableColumns count="10">
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="id" name="对话id">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="dialogue" displayName="dialogue" ref="A1:L2" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:L2" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+  <tableColumns count="12">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="id" name="对话id" dataDxfId="7">
       <calculatedColumnFormula>A1+1</calculatedColumnFormula>
-      <xmlColumnPr mapId="8" xpath="/dialogues/line/@id" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="speakerId" name="发言人id" dataDxfId="5">
-      <xmlColumnPr mapId="8" xpath="/dialogues/line/@speakerId" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="3" name="发言者姓名" dataDxfId="4">
+      <xmlColumnPr mapId="9" xpath="/dialogues/line/@id" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="speakerId" name="发言人id" dataDxfId="6">
+      <xmlColumnPr mapId="9" xpath="/dialogues/line/@speakerId" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="3" name="发言者姓名" dataDxfId="5" dataCellStyle="Note">
       <calculatedColumnFormula>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="11" xr3:uid="{BE60AF09-640A-4F58-923F-2AE7AE5CDB68}" uniqueName="varient" name="差分" dataCellStyle="Normal">
+      <xmlColumnPr mapId="9" xpath="/dialogues/line/@varient" xmlDataType="string"/>
+    </tableColumn>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="content" name="对话内容">
-      <xmlColumnPr mapId="8" xpath="/dialogues/line/@content" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="type" name="类型">
-      <xmlColumnPr mapId="8" xpath="/dialogues/line/@type" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="jumpTo" name="跳转对话id" dataDxfId="3">
-      <xmlColumnPr mapId="8" xpath="/dialogues/line/@jumpTo" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="跳转预览" dataDxfId="2">
-      <calculatedColumnFormula>IF(NOT(ISBLANK(F2)),VLOOKUP(F2,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="function" name="function" dataDxfId="1">
-      <xmlColumnPr mapId="8" xpath="/dialogues/line/@function" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="函数预览" dataDxfId="0">
-      <calculatedColumnFormula>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</calculatedColumnFormula>
+      <xmlColumnPr mapId="9" xpath="/dialogues/line/@content" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="type" name="类型" dataDxfId="4">
+      <xmlColumnPr mapId="9" xpath="/dialogues/line/@type" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="jumpTo" name="类型预览" dataDxfId="3" dataCellStyle="Note">
+      <calculatedColumnFormula>IF(dialogue[[#This Row],[类型]] &lt;&gt; -1, CHOOSE(dialogue[[#This Row],[类型]]+1, "对话", "连续选项", "不连续选项", "空"), "结束")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{9177ACC0-59F0-4E78-A372-665538B3B3C6}" uniqueName="jumpTo" name="跳转id" dataCellStyle="Normal">
+      <xmlColumnPr mapId="9" xpath="/dialogues/line/@jumpTo" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="跳转预览" dataDxfId="2" dataCellStyle="Note">
+      <calculatedColumnFormula>IF(NOT(ISBLANK(dialogue[[#This Row],[跳转id]])),VLOOKUP(H2,dialogue[[对话id]:[对话内容]],5,FALSE)," ")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="function" name="函数id" dataDxfId="1">
+      <xmlColumnPr mapId="9" xpath="/dialogues/line/@function" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="函数预览" dataDxfId="0" dataCellStyle="Note">
+      <calculatedColumnFormula>IF(NOT(ISBLANK(dialogue[[#This Row],[函数id]])),VLOOKUP(dialogue[[#This Row],[函数id]],[2]functions!$A:$B,2,FALSE)," ")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="params" name="参数">
-      <xmlColumnPr mapId="8" xpath="/dialogues/line/@params" xmlDataType="string"/>
+      <xmlColumnPr mapId="9" xpath="/dialogues/line/@params" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -740,237 +803,236 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="83.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.9140625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.25" customWidth="1"/>
+    <col min="5" max="5" width="45.58203125" customWidth="1"/>
+    <col min="6" max="6" width="7" style="7" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="2" customWidth="1"/>
     <col min="8" max="8" width="10.1640625" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" customWidth="1"/>
-    <col min="11" max="11" width="7.9140625" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.08203125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="7.9140625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="str">
+      <c r="B2" s="7"/>
+      <c r="C2" s="2" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
         <v>nameless</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="G2" s="4" t="str">
-        <f>IF(NOT(ISBLANK(F2)),VLOOKUP(F2,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
+      <c r="E2" s="3"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="2" t="str">
+        <f>IF(dialogue[[#This Row],[类型]] &lt;&gt; -1, CHOOSE(dialogue[[#This Row],[类型]]+1, "对话", "连续选项", "不连续选项", "空"), "结束")</f>
+        <v>对话</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[跳转id]])),VLOOKUP(H2,dialogue[[对话id]:[对话内容]],5,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I2" s="3" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="K2" s="4" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[函数id]])),VLOOKUP(dialogue[[#This Row],[函数id]],[2]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="7"/>
+      <c r="C3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="7"/>
+      <c r="C4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="7"/>
+      <c r="C5" s="4"/>
+      <c r="E5" s="1"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="7"/>
+      <c r="C6" s="4"/>
+      <c r="E6" s="1"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="7"/>
+      <c r="C7" s="4"/>
+      <c r="E7" s="1"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="E8" s="1"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="7"/>
+      <c r="C9" s="5"/>
+      <c r="E9" s="1"/>
+      <c r="G9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="4"/>
+      <c r="E10" s="1"/>
+      <c r="G10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="4"/>
+      <c r="E11" s="1"/>
+      <c r="G11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="4"/>
+      <c r="E12" s="1"/>
+      <c r="G12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="4"/>
+      <c r="E13" s="1"/>
+      <c r="G13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="4"/>
+      <c r="E14" s="1"/>
+      <c r="G14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="7"/>
+      <c r="C15" s="4"/>
+      <c r="E15" s="1"/>
+      <c r="G15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="7"/>
+      <c r="C16" s="4"/>
+      <c r="E16" s="1"/>
+      <c r="G16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="7"/>
+      <c r="C17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="7"/>
+      <c r="C18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="7"/>
+      <c r="C19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+      <c r="C20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="7"/>
+      <c r="C21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="7"/>
+      <c r="C23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="7"/>
+      <c r="C24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="K24" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -985,7 +1047,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -995,22 +1057,22 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Sheets/对话表模板.xlsx
+++ b/Sheets/对话表模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38F536E-576B-4E73-AAC0-02BAE3925FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361ED4DA-DFF0-4FB7-8FA9-4DDA806B9D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="181029"/>
 </workbook>
@@ -157,7 +156,7 @@
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,8 +204,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,8 +226,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -256,30 +268,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="1" builtinId="10"/>
+  <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="输入" xfId="2" builtinId="20"/>
+    <cellStyle name="注释" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -303,10 +346,23 @@
       <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -362,80 +418,7 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="characters"/>
-      <sheetName val="config"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>id</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>名称</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>1</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>田所浩二</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>记者</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>3</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>你</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>4</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>旁白</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>5</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>王爷</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>6</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>奴才</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
+      <sheetName val="annotations"/>
       <sheetName val="functions"/>
       <sheetName val="config"/>
     </sheetNames>
@@ -446,6 +429,65 @@
             <v>id</v>
           </cell>
           <cell r="B1" t="str">
+            <v>名称</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>1</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>田所浩二</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>记者</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>3</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>你</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>4</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>旁白</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>5</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>王爷</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>6</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>奴才</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>id</v>
+          </cell>
+          <cell r="B1" t="str">
             <v>函数名</v>
           </cell>
         </row>
@@ -482,7 +524,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -492,17 +534,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="dialogue" displayName="dialogue" ref="A1:L2" tableType="xml" totalsRowShown="0" connectionId="1">
   <autoFilter ref="A1:L2" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="12">
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="id" name="对话id" dataDxfId="7">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="id" name="对话id" dataDxfId="8">
       <calculatedColumnFormula>A1+1</calculatedColumnFormula>
       <xmlColumnPr mapId="9" xpath="/dialogues/line/@id" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="speakerId" name="发言人id" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="speakerId" name="发言人id" dataDxfId="7" dataCellStyle="输入">
       <xmlColumnPr mapId="9" xpath="/dialogues/line/@speakerId" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="3" name="发言者姓名" dataDxfId="5" dataCellStyle="Note">
-      <calculatedColumnFormula>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="3" name="发言者姓名" dataDxfId="6">
+      <calculatedColumnFormula>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{BE60AF09-640A-4F58-923F-2AE7AE5CDB68}" uniqueName="varient" name="差分" dataCellStyle="Normal">
+    <tableColumn id="11" xr3:uid="{BE60AF09-640A-4F58-923F-2AE7AE5CDB68}" uniqueName="varient" name="差分" dataDxfId="5">
       <xmlColumnPr mapId="9" xpath="/dialogues/line/@varient" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="content" name="对话内容">
@@ -511,20 +553,20 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="type" name="类型" dataDxfId="4">
       <xmlColumnPr mapId="9" xpath="/dialogues/line/@type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="jumpTo" name="类型预览" dataDxfId="3" dataCellStyle="Note">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="jumpTo" name="类型预览" dataDxfId="3">
       <calculatedColumnFormula>IF(dialogue[[#This Row],[类型]] &lt;&gt; -1, CHOOSE(dialogue[[#This Row],[类型]]+1, "对话", "连续选项", "不连续选项", "空"), "结束")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{9177ACC0-59F0-4E78-A372-665538B3B3C6}" uniqueName="jumpTo" name="跳转id" dataCellStyle="Normal">
+    <tableColumn id="13" xr3:uid="{9177ACC0-59F0-4E78-A372-665538B3B3C6}" uniqueName="jumpTo" name="跳转id" dataCellStyle="输入">
       <xmlColumnPr mapId="9" xpath="/dialogues/line/@jumpTo" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="跳转预览" dataDxfId="2" dataCellStyle="Note">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="跳转预览" dataDxfId="2">
       <calculatedColumnFormula>IF(NOT(ISBLANK(dialogue[[#This Row],[跳转id]])),VLOOKUP(H2,dialogue[[对话id]:[对话内容]],5,FALSE)," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="function" name="函数id" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="function" name="函数id" dataDxfId="1" dataCellStyle="输入">
       <xmlColumnPr mapId="9" xpath="/dialogues/line/@function" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="函数预览" dataDxfId="0" dataCellStyle="Note">
-      <calculatedColumnFormula>IF(NOT(ISBLANK(dialogue[[#This Row],[函数id]])),VLOOKUP(dialogue[[#This Row],[函数id]],[2]functions!$A:$B,2,FALSE)," ")</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="函数预览" dataDxfId="0">
+      <calculatedColumnFormula>IF(NOT(ISBLANK(dialogue[[#This Row],[函数id]])),VLOOKUP(dialogue[[#This Row],[函数id]],[1]functions!$A:$B,2,FALSE)," ")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="params" name="参数">
       <xmlColumnPr mapId="9" xpath="/dialogues/line/@params" xmlDataType="string"/>
@@ -806,33 +848,33 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="12" customWidth="1"/>
     <col min="4" max="4" width="6.25" customWidth="1"/>
     <col min="5" max="5" width="45.58203125" customWidth="1"/>
-    <col min="6" max="6" width="7" style="7" customWidth="1"/>
+    <col min="6" max="6" width="7" style="6" customWidth="1"/>
     <col min="7" max="7" width="11.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.08203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.75" style="10" customWidth="1"/>
     <col min="11" max="11" width="7.9140625" style="4" customWidth="1"/>
     <col min="12" max="12" width="6.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
@@ -841,19 +883,19 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="10" t="s">
         <v>14</v>
       </c>
       <c r="K1" s="4" t="s">
@@ -864,16 +906,16 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="2" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[发言人id]])), VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE), "nameless")</f>
-        <v>nameless</v>
+      <c r="B2" s="10"/>
+      <c r="C2" s="15" t="e">
+        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="8"/>
+      <c r="F2" s="7"/>
       <c r="G2" s="2" t="str">
         <f>IF(dialogue[[#This Row],[类型]] &lt;&gt; -1, CHOOSE(dialogue[[#This Row],[类型]]+1, "对话", "连续选项", "不连续选项", "空"), "结束")</f>
         <v>对话</v>
@@ -883,150 +925,150 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="K2" s="4" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[函数id]])),VLOOKUP(dialogue[[#This Row],[函数id]],[2]functions!$A:$B,2,FALSE)," ")</f>
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[函数id]])),VLOOKUP(dialogue[[#This Row],[函数id]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="7"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="13"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="8"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="13"/>
       <c r="E4" s="3"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="7"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="13"/>
       <c r="E5" s="1"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="7"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="13"/>
       <c r="E6" s="1"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="7"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="13"/>
       <c r="E7" s="1"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="13"/>
       <c r="E8" s="1"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="14"/>
       <c r="E9" s="1"/>
       <c r="G9" s="5"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="13"/>
       <c r="E10" s="1"/>
       <c r="G10" s="4"/>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="13"/>
       <c r="E11" s="1"/>
       <c r="G11" s="4"/>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="13"/>
       <c r="E12" s="1"/>
       <c r="G12" s="4"/>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="13"/>
       <c r="E13" s="1"/>
       <c r="G13" s="4"/>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="13"/>
       <c r="E14" s="1"/>
       <c r="G14" s="4"/>
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="7"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="13"/>
       <c r="E15" s="1"/>
       <c r="G15" s="4"/>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="7"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="13"/>
       <c r="E16" s="1"/>
       <c r="G16" s="4"/>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="7"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="13"/>
       <c r="G17" s="4"/>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="7"/>
-      <c r="C18" s="4"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="13"/>
       <c r="G18" s="4"/>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="7"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="13"/>
       <c r="G19" s="4"/>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="7"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="13"/>
       <c r="G20" s="4"/>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="7"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="13"/>
       <c r="G21" s="4"/>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="7"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="13"/>
       <c r="G22" s="4"/>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="7"/>
-      <c r="C23" s="5"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="14"/>
       <c r="G23" s="5"/>
       <c r="I23" s="5"/>
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="7"/>
-      <c r="C24" s="5"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="14"/>
       <c r="G24" s="5"/>
       <c r="I24" s="5"/>
       <c r="K24" s="5"/>
@@ -1067,7 +1109,7 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Sheets/对话表模板.xlsx
+++ b/Sheets/对话表模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361ED4DA-DFF0-4FB7-8FA9-4DDA806B9D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8C6C9B-A0CF-4D22-9AA7-0889872DBB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,7 +481,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="A1" t="str">
@@ -524,7 +524,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -848,7 +848,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -864,7 +864,7 @@
     <col min="9" max="9" width="9.75" style="2" customWidth="1"/>
     <col min="10" max="10" width="7.75" style="10" customWidth="1"/>
     <col min="11" max="11" width="7.9140625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.9140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -928,7 +928,7 @@
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[函数id]])),VLOOKUP(dialogue[[#This Row],[函数id]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L2" s="1"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" s="10"/>

--- a/Sheets/对话表模板.xlsx
+++ b/Sheets/对话表模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8C6C9B-A0CF-4D22-9AA7-0889872DBB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF873D16-803C-4A11-BBFF-06B0B6ADC5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -521,6 +521,22 @@
           </cell>
           <cell r="B5" t="str">
             <v>Log</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>4</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>Ii</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>5</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>Interpolate</v>
           </cell>
         </row>
       </sheetData>
@@ -848,7 +864,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Sheets/对话表模板.xlsx
+++ b/Sheets/对话表模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF873D16-803C-4A11-BBFF-06B0B6ADC5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BD2142-7BAA-450D-9069-69F256EB4A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -293,7 +293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -316,6 +316,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -437,7 +440,7 @@
             <v>1</v>
           </cell>
           <cell r="B2" t="str">
-            <v>田所浩二</v>
+            <v>田所浩2</v>
           </cell>
         </row>
         <row r="3">
@@ -864,7 +867,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -947,7 +950,7 @@
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="10"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="13"/>
       <c r="E3" s="3"/>
       <c r="F3" s="7"/>
